--- a/TOFEL_QG.xlsx
+++ b/TOFEL_QG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <t>List1</t>
   </si>
@@ -424,6 +424,213 @@
   </si>
   <si>
     <t>amiable</t>
+  </si>
+  <si>
+    <t>amicable</t>
+  </si>
+  <si>
+    <t>amity</t>
+  </si>
+  <si>
+    <t>enmity</t>
+  </si>
+  <si>
+    <t>enamor</t>
+  </si>
+  <si>
+    <t>pamper</t>
+  </si>
+  <si>
+    <t>amphibian</t>
+  </si>
+  <si>
+    <t>ambition</t>
+  </si>
+  <si>
+    <t>ambiguous</t>
+  </si>
+  <si>
+    <t>ambivalent</t>
+  </si>
+  <si>
+    <t>ambidextrous</t>
+  </si>
+  <si>
+    <t>ambience</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>acquiesce</t>
+  </si>
+  <si>
+    <t>efflorescence</t>
+  </si>
+  <si>
+    <t>quiescent</t>
+  </si>
+  <si>
+    <t>quietus</t>
+  </si>
+  <si>
+    <t>acquittal</t>
+  </si>
+  <si>
+    <t>convict</t>
+  </si>
+  <si>
+    <t>addle</t>
+  </si>
+  <si>
+    <t>baffle</t>
+  </si>
+  <si>
+    <t>bewilder</t>
+  </si>
+  <si>
+    <t>adept</t>
+  </si>
+  <si>
+    <t>adopt</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>inept</t>
+  </si>
+  <si>
+    <t>inapt</t>
+  </si>
+  <si>
+    <t>deft</t>
+  </si>
+  <si>
+    <t>adroit</t>
+  </si>
+  <si>
+    <t>daft</t>
+  </si>
+  <si>
+    <t>adjacent</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>deject</t>
+  </si>
+  <si>
+    <t>abject</t>
+  </si>
+  <si>
+    <t>conjuecture</t>
+  </si>
+  <si>
+    <t>ejaculate</t>
+  </si>
+  <si>
+    <t>abut</t>
+  </si>
+  <si>
+    <t>adjoin</t>
+  </si>
+  <si>
+    <t>adjourn</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>sojourn</t>
+  </si>
+  <si>
+    <t>diurnal</t>
+  </si>
+  <si>
+    <t>nocturnal</t>
+  </si>
+  <si>
+    <t>adulterate</t>
+  </si>
+  <si>
+    <t>adultery</t>
+  </si>
+  <si>
+    <t>adulate</t>
+  </si>
+  <si>
+    <t>List5</t>
+  </si>
+  <si>
+    <t>annihilate</t>
+  </si>
+  <si>
+    <t>nihilism</t>
+  </si>
+  <si>
+    <t>nullify</t>
+  </si>
+  <si>
+    <t>annul</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>eliminate</t>
+  </si>
+  <si>
+    <t>annotate</t>
+  </si>
+  <si>
+    <t>notation</t>
+  </si>
+  <si>
+    <t>connotation</t>
+  </si>
+  <si>
+    <t>denotation</t>
+  </si>
+  <si>
+    <t>notorious</t>
+  </si>
+  <si>
+    <t>antagonize</t>
+  </si>
+  <si>
+    <t>antagonist</t>
+  </si>
+  <si>
+    <t>protagonist</t>
+  </si>
+  <si>
+    <t>opponent</t>
+  </si>
+  <si>
+    <t>rival</t>
+  </si>
+  <si>
+    <t>agitate</t>
+  </si>
+  <si>
+    <t>cogitate</t>
+  </si>
+  <si>
+    <t>cogent</t>
+  </si>
+  <si>
+    <t>exigent</t>
+  </si>
+  <si>
+    <t>aquatic</t>
+  </si>
+  <si>
+    <t>aquarium</t>
+  </si>
+  <si>
+    <t>Aquarius</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A136"/>
+  <dimension ref="A1:A205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1621,7 +1828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" ht="14.25" spans="1:1">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -1911,7 +2118,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" ht="14.25" spans="1:1">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -2091,7 +2298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" ht="14.25" spans="1:1">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -2109,6 +2316,351 @@
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/TOFEL_QG.xlsx
+++ b/TOFEL_QG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
   <si>
     <t>List1</t>
   </si>
@@ -631,6 +631,375 @@
   </si>
   <si>
     <t>Aquarius</t>
+  </si>
+  <si>
+    <t>aquaous</t>
+  </si>
+  <si>
+    <t>opaque</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>harbor</t>
+  </si>
+  <si>
+    <t>arboretum</t>
+  </si>
+  <si>
+    <t>arboreal</t>
+  </si>
+  <si>
+    <t>ardent</t>
+  </si>
+  <si>
+    <t>fervid</t>
+  </si>
+  <si>
+    <t>fervent</t>
+  </si>
+  <si>
+    <t>profervid</t>
+  </si>
+  <si>
+    <t>ardor</t>
+  </si>
+  <si>
+    <t>arson</t>
+  </si>
+  <si>
+    <t>arsonist</t>
+  </si>
+  <si>
+    <t>arsenal</t>
+  </si>
+  <si>
+    <t>List6</t>
+  </si>
+  <si>
+    <t>arrant</t>
+  </si>
+  <si>
+    <t>flagrant</t>
+  </si>
+  <si>
+    <t>fragrant</t>
+  </si>
+  <si>
+    <t>errant</t>
+  </si>
+  <si>
+    <t>erroneous</t>
+  </si>
+  <si>
+    <t>inerrancy</t>
+  </si>
+  <si>
+    <t>erratic</t>
+  </si>
+  <si>
+    <t>abnormal</t>
+  </si>
+  <si>
+    <t>aberrant</t>
+  </si>
+  <si>
+    <t>articulate</t>
+  </si>
+  <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>artful</t>
+  </si>
+  <si>
+    <t>artless</t>
+  </si>
+  <si>
+    <t>artisan</t>
+  </si>
+  <si>
+    <t>partisan</t>
+  </si>
+  <si>
+    <t>ascetic</t>
+  </si>
+  <si>
+    <t>athletic</t>
+  </si>
+  <si>
+    <t>libertine</t>
+  </si>
+  <si>
+    <t>indulgent</t>
+  </si>
+  <si>
+    <t>abstemious</t>
+  </si>
+  <si>
+    <t>askew</t>
+  </si>
+  <si>
+    <t>awry</t>
+  </si>
+  <si>
+    <t>wrath</t>
+  </si>
+  <si>
+    <t>wrangle</t>
+  </si>
+  <si>
+    <t>wreak</t>
+  </si>
+  <si>
+    <t>writhe</t>
+  </si>
+  <si>
+    <t>wriggle</t>
+  </si>
+  <si>
+    <t>pride</t>
+  </si>
+  <si>
+    <t>greed</t>
+  </si>
+  <si>
+    <t>lust</t>
+  </si>
+  <si>
+    <t>envy</t>
+  </si>
+  <si>
+    <t>sloth</t>
+  </si>
+  <si>
+    <t>gluttony</t>
+  </si>
+  <si>
+    <t>glutinous</t>
+  </si>
+  <si>
+    <t>gluttonous</t>
+  </si>
+  <si>
+    <t>industrious</t>
+  </si>
+  <si>
+    <t>diligent</t>
+  </si>
+  <si>
+    <t>assiduous</t>
+  </si>
+  <si>
+    <t>insidious</t>
+  </si>
+  <si>
+    <t>subside</t>
+  </si>
+  <si>
+    <t>preside</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>dissident</t>
+  </si>
+  <si>
+    <t>sedentary</t>
+  </si>
+  <si>
+    <t>sedulous</t>
+  </si>
+  <si>
+    <t>supersede</t>
+  </si>
+  <si>
+    <t>assimilate</t>
+  </si>
+  <si>
+    <t>simultaneous</t>
+  </si>
+  <si>
+    <t>interpreter</t>
+  </si>
+  <si>
+    <t>dissimulate</t>
+  </si>
+  <si>
+    <t>dissemble</t>
+  </si>
+  <si>
+    <t>verisimilary</t>
+  </si>
+  <si>
+    <t>attenuate</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>tenuous</t>
+  </si>
+  <si>
+    <t>extenuate</t>
+  </si>
+  <si>
+    <t>augment</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>auction</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>audacious</t>
+  </si>
+  <si>
+    <t>dialogue</t>
+  </si>
+  <si>
+    <t>loguacioous</t>
+  </si>
+  <si>
+    <t>accretion</t>
+  </si>
+  <si>
+    <t>accrue</t>
+  </si>
+  <si>
+    <t>accumulate</t>
+  </si>
+  <si>
+    <t>paramount</t>
+  </si>
+  <si>
+    <t>surmount</t>
+  </si>
+  <si>
+    <t>insurmountable</t>
+  </si>
+  <si>
+    <t>austere</t>
+  </si>
+  <si>
+    <t>authentic</t>
+  </si>
+  <si>
+    <t>veracious</t>
+  </si>
+  <si>
+    <t>bogus</t>
+  </si>
+  <si>
+    <t>phony</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>avarice</t>
+  </si>
+  <si>
+    <t>avaricious</t>
+  </si>
+  <si>
+    <t>voracious</t>
+  </si>
+  <si>
+    <t>covet</t>
+  </si>
+  <si>
+    <t>covetous</t>
+  </si>
+  <si>
+    <t>covert</t>
+  </si>
+  <si>
+    <t>overt</t>
+  </si>
+  <si>
+    <t>List7</t>
+  </si>
+  <si>
+    <t>avert</t>
+  </si>
+  <si>
+    <t>advert</t>
+  </si>
+  <si>
+    <t>advertisement</t>
+  </si>
+  <si>
+    <t>divert</t>
+  </si>
+  <si>
+    <t>revert</t>
+  </si>
+  <si>
+    <t>pervert</t>
+  </si>
+  <si>
+    <t>controvert</t>
+  </si>
+  <si>
+    <t>controversy</t>
+  </si>
+  <si>
+    <t>subvert</t>
+  </si>
+  <si>
+    <t>subversive</t>
+  </si>
+  <si>
+    <t>perverse</t>
+  </si>
+  <si>
+    <t>controvesial</t>
+  </si>
+  <si>
+    <t>diverse</t>
+  </si>
+  <si>
+    <t>adverse</t>
+  </si>
+  <si>
+    <t>circumstance</t>
+  </si>
+  <si>
+    <t>adversity</t>
+  </si>
+  <si>
+    <t>adversary</t>
+  </si>
+  <si>
+    <t>extrovert</t>
+  </si>
+  <si>
+    <t>introvert</t>
+  </si>
+  <si>
+    <t>vertex</t>
+  </si>
+  <si>
+    <t>vortex</t>
+  </si>
+  <si>
+    <t>versatile</t>
+  </si>
+  <si>
+    <t>satellite</t>
+  </si>
+  <si>
+    <t>vertigo</t>
   </si>
 </sst>
 </file>
@@ -638,18 +1007,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -659,7 +1034,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -679,11 +1054,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -703,6 +1078,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -716,11 +1105,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,15 +1128,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -755,34 +1153,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,14 +1177,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,6 +1230,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -891,25 +1296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +1308,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,19 +1344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,36 +1384,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1023,7 +1398,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,6 +1414,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,8 +1471,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,192 +1491,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1649,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1624,1043 +2002,1668 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="18.75" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" ht="18.75" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" ht="18.75" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" ht="18.75" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" ht="18.75" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" ht="18.75" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" ht="18.75" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" ht="18.75" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" ht="18.75" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" ht="18.75" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" ht="18.75" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" ht="18.75" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" ht="18.75" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" ht="18.75" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" ht="18.75" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" ht="18.75" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" ht="18.75" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" ht="18.75" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" ht="18.75" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" ht="18.75" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" ht="18.75" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" ht="18.75" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" ht="18.75" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" ht="18.75" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" ht="18.75" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" ht="18.75" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" ht="18.75" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" ht="18.75" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" ht="18.75" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" ht="18.75" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" ht="18.75" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" ht="18.75" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" ht="18.75" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" ht="18.75" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" ht="18.75" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" ht="18.75" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" ht="18.75" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" ht="18.75" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:1">
-      <c r="A39" s="2" t="s">
+    <row r="39" ht="18.75" spans="1:1">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" ht="18.75" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" ht="18.75" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" ht="18.75" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" ht="18.75" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" ht="18.75" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" ht="18.75" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" ht="18.75" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" ht="18.75" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" ht="18.75" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" ht="18.75" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" ht="18.75" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" ht="18.75" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" ht="18.75" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" ht="18.75" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" ht="18.75" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" ht="18.75" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" ht="18.75" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" ht="18.75" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" ht="18.75" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" ht="18.75" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" ht="18.75" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" ht="18.75" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" ht="18.75" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" ht="18.75" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" ht="18.75" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" ht="18.75" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" ht="18.75" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" ht="18.75" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" ht="18.75" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" ht="18.75" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" ht="18.75" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" ht="18.75" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" ht="18.75" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" ht="18.75" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" ht="18.75" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" ht="18.75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" ht="18.75" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" ht="18.75" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" ht="18.75" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" ht="18.75" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" ht="18.75" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" ht="18.75" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" ht="18.75" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" ht="18.75" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" ht="18.75" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" ht="18.75" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" ht="18.75" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" ht="18.75" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" ht="18.75" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" ht="18.75" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" ht="18.75" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" ht="18.75" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" ht="18.75" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" ht="18.75" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" ht="18.75" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" ht="18.75" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" ht="18.75" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:1">
-      <c r="A97" s="2" t="s">
+    <row r="97" ht="18.75" spans="1:1">
+      <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" ht="18.75" spans="1:1">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" ht="18.75" spans="1:1">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" ht="18.75" spans="1:1">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" ht="18.75" spans="1:1">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" ht="18.75" spans="1:1">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" ht="18.75" spans="1:1">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" ht="18.75" spans="1:1">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" ht="18.75" spans="1:1">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" ht="18.75" spans="1:1">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" ht="18.75" spans="1:1">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" ht="18.75" spans="1:1">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" ht="18.75" spans="1:1">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" ht="18.75" spans="1:1">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" ht="18.75" spans="1:1">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" ht="18.75" spans="1:1">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" ht="18.75" spans="1:1">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" ht="18.75" spans="1:1">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" ht="18.75" spans="1:1">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" ht="18.75" spans="1:1">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" ht="18.75" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" ht="18.75" spans="1:1">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" ht="18.75" spans="1:1">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" ht="18.75" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" ht="18.75" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" ht="18.75" spans="1:1">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" ht="18.75" spans="1:1">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" ht="18.75" spans="1:1">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" ht="18.75" spans="1:1">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" ht="18.75" spans="1:1">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" ht="18.75" spans="1:1">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" ht="18.75" spans="1:1">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" ht="18.75" spans="1:1">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" ht="18.75" spans="1:1">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" ht="18.75" spans="1:1">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" ht="18.75" spans="1:1">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:1">
-      <c r="A133" s="2" t="s">
+    <row r="133" ht="18.75" spans="1:1">
+      <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" ht="18.75" spans="1:1">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" ht="18.75" spans="1:1">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" ht="18.75" spans="1:1">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" ht="18.75" spans="1:1">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" ht="18.75" spans="1:1">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" ht="18.75" spans="1:1">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" ht="18.75" spans="1:1">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" ht="18.75" spans="1:1">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" ht="18.75" spans="1:1">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" ht="18.75" spans="1:1">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" ht="18.75" spans="1:1">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" ht="18.75" spans="1:1">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" ht="18.75" spans="1:1">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" ht="18.75" spans="1:1">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" ht="18.75" spans="1:1">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" ht="18.75" spans="1:1">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" ht="18.75" spans="1:1">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" ht="18.75" spans="1:1">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" ht="18.75" spans="1:1">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" ht="18.75" spans="1:1">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" ht="18.75" spans="1:1">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" ht="18.75" spans="1:1">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" ht="18.75" spans="1:1">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" ht="18.75" spans="1:1">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" ht="18.75" spans="1:1">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" ht="18.75" spans="1:1">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" ht="18.75" spans="1:1">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" ht="18.75" spans="1:1">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" ht="18.75" spans="1:1">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" ht="18.75" spans="1:1">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" ht="18.75" spans="1:1">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" ht="18.75" spans="1:1">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" ht="18.75" spans="1:1">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" ht="18.75" spans="1:1">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" ht="18.75" spans="1:1">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" ht="18.75" spans="1:1">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" ht="18.75" spans="1:1">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" ht="18.75" spans="1:1">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" ht="18.75" spans="1:1">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" ht="18.75" spans="1:1">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" ht="18.75" spans="1:1">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" ht="18.75" spans="1:1">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" ht="18.75" spans="1:1">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" ht="18.75" spans="1:1">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" ht="18.75" spans="1:1">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" ht="18.75" spans="1:1">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" ht="18.75" spans="1:1">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" ht="18.75" spans="1:1">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="2" t="s">
+    <row r="182" ht="18.75" spans="1:1">
+      <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" ht="18.75" spans="1:1">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" ht="18.75" spans="1:1">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" ht="18.75" spans="1:1">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" ht="18.75" spans="1:1">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" ht="18.75" spans="1:1">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" ht="18.75" spans="1:1">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" ht="18.75" spans="1:1">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" ht="18.75" spans="1:1">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" ht="18.75" spans="1:1">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" ht="18.75" spans="1:1">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" ht="18.75" spans="1:1">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" ht="18.75" spans="1:1">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" ht="18.75" spans="1:1">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" ht="18.75" spans="1:1">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" ht="18.75" spans="1:1">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" ht="18.75" spans="1:1">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" ht="18.75" spans="1:1">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" ht="18.75" spans="1:1">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" ht="18.75" spans="1:1">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" ht="18.75" spans="1:1">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" ht="18.75" spans="1:1">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" ht="18.75" spans="1:1">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" ht="18.75" spans="1:1">
       <c r="A205" s="1" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="206" ht="18.75" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" ht="18.75" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" ht="18.75" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" ht="18.75" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" ht="18.75" spans="1:1">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" ht="18.75" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" ht="18.75" spans="1:1">
+      <c r="A212" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="213" ht="18.75" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" ht="18.75" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" ht="18.75" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" ht="18.75" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" ht="18.75" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" ht="18.75" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" ht="18.75" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" ht="18.75" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" ht="18.75" spans="1:1">
+      <c r="A221" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" ht="18.75" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" ht="18.75" spans="1:1">
+      <c r="A223" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" ht="18.75" spans="1:1">
+      <c r="A224" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" ht="18.75" spans="1:1">
+      <c r="A225" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" ht="18.75" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" ht="18.75" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" ht="18.75" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" ht="18.75" spans="1:1">
+      <c r="A229" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" ht="18.75" spans="1:1">
+      <c r="A230" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" ht="18.75" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" ht="18.75" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" ht="18.75" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" ht="18.75" spans="1:1">
+      <c r="A234" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" ht="18.75" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" ht="18.75" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" ht="18.75" spans="1:1">
+      <c r="A237" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" ht="18.75" spans="1:1">
+      <c r="A238" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" ht="18.75" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" ht="18.75" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" ht="18.75" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" ht="18.75" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="243" ht="18.75" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" ht="18.75" spans="1:1">
+      <c r="A244" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" ht="18.75" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" ht="18.75" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="247" ht="18.75" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="248" ht="18.75" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="249" ht="18.75" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="250" ht="18.75" spans="1:1">
+      <c r="A250" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="251" ht="18.75" spans="1:1">
+      <c r="A251" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="252" ht="18.75" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253" ht="18.75" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254" ht="18.75" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="255" ht="18.75" spans="1:1">
+      <c r="A255" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="256" ht="18.75" spans="1:1">
+      <c r="A256" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="257" ht="18.75" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="258" ht="18.75" spans="1:1">
+      <c r="A258" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="259" ht="18.75" spans="1:1">
+      <c r="A259" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" ht="18.75" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="261" ht="18.75" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="262" ht="18.75" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="263" ht="18.75" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="264" ht="18.75" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="265" ht="18.75" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="266" ht="18.75" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="267" ht="18.75" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="268" ht="18.75" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="269" ht="18.75" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="270" ht="18.75" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="271" ht="18.75" spans="1:1">
+      <c r="A271" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="272" ht="18.75" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="273" ht="18.75" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="274" ht="18.75" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275" ht="18.75" spans="1:1">
+      <c r="A275" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="276" ht="18.75" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="277" ht="18.75" spans="1:1">
+      <c r="A277" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="278" ht="18.75" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="279" ht="18.75" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="280" ht="18.75" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="281" ht="18.75" spans="1:1">
+      <c r="A281" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="282" ht="18.75" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="283" ht="18.75" spans="1:1">
+      <c r="A283" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="284" ht="18.75" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="285" ht="18.75" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="286" ht="18.75" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="287" ht="18.75" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="288" ht="18.75" spans="1:1">
+      <c r="A288" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="289" ht="18.75" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="290" ht="18.75" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="291" ht="18.75" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="292" ht="18.75" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="293" ht="18.75" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="294" ht="18.75" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="295" ht="18.75" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="296" ht="18.75" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="297" ht="18.75" spans="1:1">
+      <c r="A297" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="298" ht="18.75" spans="1:1">
+      <c r="A298" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="299" ht="18.75" spans="1:1">
+      <c r="A299" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="300" ht="18.75" spans="1:1">
+      <c r="A300" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="301" ht="18.75" spans="1:1">
+      <c r="A301" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="302" ht="18.75" spans="1:1">
+      <c r="A302" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="303" ht="18.75" spans="1:1">
+      <c r="A303" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="304" ht="18.75" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" ht="18.75" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="306" ht="18.75" spans="1:1">
+      <c r="A306" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="307" ht="18.75" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" ht="18.75" spans="1:1">
+      <c r="A308" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="309" ht="18.75" spans="1:1">
+      <c r="A309" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="310" ht="18.75" spans="1:1">
+      <c r="A310" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" ht="18.75" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="312" ht="18.75" spans="1:1">
+      <c r="A312" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="313" ht="18.75" spans="1:1">
+      <c r="A313" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="314" ht="18.75" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="315" ht="18.75" spans="1:1">
+      <c r="A315" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="316" ht="18.75" spans="1:1">
+      <c r="A316" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="317" ht="18.75" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="318" ht="18.75" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="319" ht="18.75" spans="1:1">
+      <c r="A319" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="320" ht="18.75" spans="1:1">
+      <c r="A320" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="321" ht="18.75" spans="1:1">
+      <c r="A321" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="322" ht="18.75" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="323" ht="18.75" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="324" ht="18.75" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="325" ht="18.75" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="326" ht="18.75" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="327" ht="18.75" spans="1:1">
+      <c r="A327" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="328" ht="18.75" spans="1:1">
+      <c r="A328" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="329" ht="18.75" spans="1:1">
+      <c r="A329" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="330" ht="18.75" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/TOFEL_QG.xlsx
+++ b/TOFEL_QG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367">
   <si>
     <t>List1</t>
   </si>
@@ -1000,6 +1000,123 @@
   </si>
   <si>
     <t>vertigo</t>
+  </si>
+  <si>
+    <t>aviary</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
+    <t>aviator</t>
+  </si>
+  <si>
+    <t>auspicious</t>
+  </si>
+  <si>
+    <t>augury</t>
+  </si>
+  <si>
+    <t>spectator</t>
+  </si>
+  <si>
+    <t>avow</t>
+  </si>
+  <si>
+    <t>disavow</t>
+  </si>
+  <si>
+    <t>aver</t>
+  </si>
+  <si>
+    <t>vocal</t>
+  </si>
+  <si>
+    <t>equivocal</t>
+  </si>
+  <si>
+    <t>vociferous</t>
+  </si>
+  <si>
+    <t>provoke</t>
+  </si>
+  <si>
+    <t>revoke</t>
+  </si>
+  <si>
+    <t>convoke</t>
+  </si>
+  <si>
+    <t>invoke</t>
+  </si>
+  <si>
+    <t>evoke</t>
+  </si>
+  <si>
+    <t>balmy</t>
+  </si>
+  <si>
+    <t>balm</t>
+  </si>
+  <si>
+    <t>palm</t>
+  </si>
+  <si>
+    <t>bane</t>
+  </si>
+  <si>
+    <t>baneful</t>
+  </si>
+  <si>
+    <t>baleful</t>
+  </si>
+  <si>
+    <t>wane</t>
+  </si>
+  <si>
+    <t>sane</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>arcane</t>
+  </si>
+  <si>
+    <t>inane</t>
+  </si>
+  <si>
+    <t>barrier</t>
+  </si>
+  <si>
+    <t>barricade</t>
+  </si>
+  <si>
+    <t>barren</t>
+  </si>
+  <si>
+    <t>barbarian</t>
+  </si>
+  <si>
+    <t>embargo</t>
+  </si>
+  <si>
+    <t>curfew</t>
+  </si>
+  <si>
+    <t>blockade</t>
+  </si>
+  <si>
+    <t>bawdy</t>
+  </si>
+  <si>
+    <t>obscence</t>
+  </si>
+  <si>
+    <t>lewd</t>
+  </si>
+  <si>
+    <t>erotic</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1124,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1078,20 +1195,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1113,6 +1216,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1121,8 +1245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,6 +1269,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1157,21 +1289,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1230,36 +1347,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1296,6 +1383,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1326,6 +1443,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1339,18 +1468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,15 +1511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1414,6 +1522,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,6 +1570,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1464,15 +1590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1499,10 +1616,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1520,85 +1637,85 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1610,34 +1727,34 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2002,13 +2119,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A330"/>
+  <dimension ref="A1:A369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="A331" sqref="A331"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="A370" sqref="A370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
@@ -2016,1654 +2133,1849 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:1">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:1">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:1">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:1">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:1">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="1:1">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="1:1">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:1">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="18.75" spans="1:1">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="18.75" spans="1:1">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="18.75" spans="1:1">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="1:1">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="1:1">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="18.75" spans="1:1">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="18.75" spans="1:1">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="18.75" spans="1:1">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="18.75" spans="1:1">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="18.75" spans="1:1">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="18.75" spans="1:1">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="18.75" spans="1:1">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="18.75" spans="1:1">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="18.75" spans="1:1">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="18.75" spans="1:1">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="18.75" spans="1:1">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="18.75" spans="1:1">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="18.75" spans="1:1">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="18.75" spans="1:1">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="18.75" spans="1:1">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="18.75" spans="1:1">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="18.75" spans="1:1">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="18.75" spans="1:1">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="18.75" spans="1:1">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="18.75" spans="1:1">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="18.75" spans="1:1">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="18.75" spans="1:1">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="18.75" spans="1:1">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="18.75" spans="1:1">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="18.75" spans="1:1">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="18.75" spans="1:1">
+    <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" ht="18.75" spans="1:1">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="18.75" spans="1:1">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="18.75" spans="1:1">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" ht="18.75" spans="1:1">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" ht="18.75" spans="1:1">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="18.75" spans="1:1">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" ht="18.75" spans="1:1">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" ht="18.75" spans="1:1">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" ht="18.75" spans="1:1">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" ht="18.75" spans="1:1">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" ht="18.75" spans="1:1">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" ht="18.75" spans="1:1">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" ht="18.75" spans="1:1">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" ht="18.75" spans="1:1">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="18.75" spans="1:1">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" ht="18.75" spans="1:1">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" ht="18.75" spans="1:1">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" ht="18.75" spans="1:1">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" ht="18.75" spans="1:1">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" ht="18.75" spans="1:1">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" ht="18.75" spans="1:1">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" ht="18.75" spans="1:1">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" ht="18.75" spans="1:1">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" ht="18.75" spans="1:1">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" ht="18.75" spans="1:1">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" ht="18.75" spans="1:1">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" ht="18.75" spans="1:1">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" ht="18.75" spans="1:1">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" ht="18.75" spans="1:1">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" ht="18.75" spans="1:1">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" ht="18.75" spans="1:1">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" ht="18.75" spans="1:1">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" ht="18.75" spans="1:1">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" ht="18.75" spans="1:1">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" ht="18.75" spans="1:1">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" ht="18.75" spans="1:1">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" ht="18.75" spans="1:1">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" ht="18.75" spans="1:1">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" ht="18.75" spans="1:1">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" ht="18.75" spans="1:1">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" ht="18.75" spans="1:1">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" ht="18.75" spans="1:1">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" ht="18.75" spans="1:1">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" ht="18.75" spans="1:1">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" ht="18.75" spans="1:1">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" ht="18.75" spans="1:1">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" ht="18.75" spans="1:1">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" ht="18.75" spans="1:1">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" ht="18.75" spans="1:1">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" ht="18.75" spans="1:1">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" ht="18.75" spans="1:1">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" ht="18.75" spans="1:1">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" ht="18.75" spans="1:1">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" ht="18.75" spans="1:1">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" ht="18.75" spans="1:1">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" ht="18.75" spans="1:1">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" ht="18.75" spans="1:1">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" ht="18.75" spans="1:1">
+    <row r="97" spans="1:1">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" ht="18.75" spans="1:1">
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" ht="18.75" spans="1:1">
+    <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" ht="18.75" spans="1:1">
+    <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" ht="18.75" spans="1:1">
+    <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" ht="18.75" spans="1:1">
+    <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="18.75" spans="1:1">
+    <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" ht="18.75" spans="1:1">
+    <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" ht="18.75" spans="1:1">
+    <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" ht="18.75" spans="1:1">
+    <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" ht="18.75" spans="1:1">
+    <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" ht="18.75" spans="1:1">
+    <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" ht="18.75" spans="1:1">
+    <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" ht="18.75" spans="1:1">
+    <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" ht="18.75" spans="1:1">
+    <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" ht="18.75" spans="1:1">
+    <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" ht="18.75" spans="1:1">
+    <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" ht="18.75" spans="1:1">
+    <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" ht="18.75" spans="1:1">
+    <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" ht="18.75" spans="1:1">
+    <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" ht="18.75" spans="1:1">
+    <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" ht="18.75" spans="1:1">
+    <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" ht="18.75" spans="1:1">
+    <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" ht="18.75" spans="1:1">
+    <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" ht="18.75" spans="1:1">
+    <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" ht="18.75" spans="1:1">
+    <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" ht="18.75" spans="1:1">
+    <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" ht="18.75" spans="1:1">
+    <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" ht="18.75" spans="1:1">
+    <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" ht="18.75" spans="1:1">
+    <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" ht="18.75" spans="1:1">
+    <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" ht="18.75" spans="1:1">
+    <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" ht="18.75" spans="1:1">
+    <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" ht="18.75" spans="1:1">
+    <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" ht="18.75" spans="1:1">
+    <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" ht="18.75" spans="1:1">
+    <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" ht="18.75" spans="1:1">
+    <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" ht="18.75" spans="1:1">
+    <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" ht="18.75" spans="1:1">
+    <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" ht="18.75" spans="1:1">
+    <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" ht="18.75" spans="1:1">
+    <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" ht="18.75" spans="1:1">
+    <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" ht="18.75" spans="1:1">
+    <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" ht="18.75" spans="1:1">
+    <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" ht="18.75" spans="1:1">
+    <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" ht="18.75" spans="1:1">
+    <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" ht="18.75" spans="1:1">
+    <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" ht="18.75" spans="1:1">
+    <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" ht="18.75" spans="1:1">
+    <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" ht="18.75" spans="1:1">
+    <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" ht="18.75" spans="1:1">
+    <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" ht="18.75" spans="1:1">
+    <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" ht="18.75" spans="1:1">
+    <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" ht="18.75" spans="1:1">
+    <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" ht="18.75" spans="1:1">
+    <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" ht="18.75" spans="1:1">
+    <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" ht="18.75" spans="1:1">
+    <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" ht="18.75" spans="1:1">
+    <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" ht="18.75" spans="1:1">
+    <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" ht="18.75" spans="1:1">
+    <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" ht="18.75" spans="1:1">
+    <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" ht="18.75" spans="1:1">
+    <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" ht="18.75" spans="1:1">
+    <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" ht="18.75" spans="1:1">
+    <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" ht="18.75" spans="1:1">
+    <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" ht="18.75" spans="1:1">
+    <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" ht="18.75" spans="1:1">
+    <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" ht="18.75" spans="1:1">
+    <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" ht="18.75" spans="1:1">
+    <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" ht="18.75" spans="1:1">
+    <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" ht="18.75" spans="1:1">
+    <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" ht="18.75" spans="1:1">
+    <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" ht="18.75" spans="1:1">
+    <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" ht="18.75" spans="1:1">
+    <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" ht="18.75" spans="1:1">
+    <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" ht="18.75" spans="1:1">
+    <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" ht="18.75" spans="1:1">
+    <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" ht="18.75" spans="1:1">
+    <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" ht="18.75" spans="1:1">
+    <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" ht="18.75" spans="1:1">
+    <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" ht="18.75" spans="1:1">
+    <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" ht="18.75" spans="1:1">
+    <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" ht="18.75" spans="1:1">
+    <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" ht="18.75" spans="1:1">
+    <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" ht="18.75" spans="1:1">
+    <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" ht="18.75" spans="1:1">
+    <row r="182" spans="1:1">
       <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" ht="18.75" spans="1:1">
+    <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" ht="18.75" spans="1:1">
+    <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" ht="18.75" spans="1:1">
+    <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" ht="18.75" spans="1:1">
+    <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" ht="18.75" spans="1:1">
+    <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" ht="18.75" spans="1:1">
+    <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" ht="18.75" spans="1:1">
+    <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" ht="18.75" spans="1:1">
+    <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" ht="18.75" spans="1:1">
+    <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" ht="18.75" spans="1:1">
+    <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" ht="18.75" spans="1:1">
+    <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" ht="18.75" spans="1:1">
+    <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" ht="18.75" spans="1:1">
+    <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" ht="18.75" spans="1:1">
+    <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" ht="18.75" spans="1:1">
+    <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" ht="18.75" spans="1:1">
+    <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" ht="18.75" spans="1:1">
+    <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" ht="18.75" spans="1:1">
+    <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" ht="18.75" spans="1:1">
+    <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" ht="18.75" spans="1:1">
+    <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" ht="18.75" spans="1:1">
+    <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" ht="18.75" spans="1:1">
+    <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" ht="18.75" spans="1:1">
+    <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" ht="18.75" spans="1:1">
+    <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" ht="18.75" spans="1:1">
+    <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" ht="18.75" spans="1:1">
+    <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" ht="18.75" spans="1:1">
+    <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" ht="18.75" spans="1:1">
+    <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" ht="18.75" spans="1:1">
+    <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" ht="18.75" spans="1:1">
+    <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="213" ht="18.75" spans="1:1">
+    <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" ht="18.75" spans="1:1">
+    <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" ht="18.75" spans="1:1">
+    <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" ht="18.75" spans="1:1">
+    <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" ht="18.75" spans="1:1">
+    <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" ht="18.75" spans="1:1">
+    <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="219" ht="18.75" spans="1:1">
+    <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="220" ht="18.75" spans="1:1">
+    <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="221" ht="18.75" spans="1:1">
+    <row r="221" spans="1:1">
       <c r="A221" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" ht="18.75" spans="1:1">
+    <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" ht="18.75" spans="1:1">
+    <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="224" ht="18.75" spans="1:1">
+    <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="225" ht="18.75" spans="1:1">
+    <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="226" ht="18.75" spans="1:1">
+    <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="227" ht="18.75" spans="1:1">
+    <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="228" ht="18.75" spans="1:1">
+    <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="229" ht="18.75" spans="1:1">
+    <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="230" ht="18.75" spans="1:1">
+    <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="231" ht="18.75" spans="1:1">
+    <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="232" ht="18.75" spans="1:1">
+    <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233" ht="18.75" spans="1:1">
+    <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="234" ht="18.75" spans="1:1">
+    <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="235" ht="18.75" spans="1:1">
+    <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="236" ht="18.75" spans="1:1">
+    <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="237" ht="18.75" spans="1:1">
+    <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" ht="18.75" spans="1:1">
+    <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="239" ht="18.75" spans="1:1">
+    <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="240" ht="18.75" spans="1:1">
+    <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="241" ht="18.75" spans="1:1">
+    <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="242" ht="18.75" spans="1:1">
+    <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="243" ht="18.75" spans="1:1">
+    <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="244" ht="18.75" spans="1:1">
+    <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="245" ht="18.75" spans="1:1">
+    <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="246" ht="18.75" spans="1:1">
+    <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="247" ht="18.75" spans="1:1">
+    <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="248" ht="18.75" spans="1:1">
+    <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="249" ht="18.75" spans="1:1">
+    <row r="249" spans="1:1">
       <c r="A249" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="250" ht="18.75" spans="1:1">
+    <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="251" ht="18.75" spans="1:1">
+    <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="252" ht="18.75" spans="1:1">
+    <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="253" ht="18.75" spans="1:1">
+    <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254" ht="18.75" spans="1:1">
+    <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="255" ht="18.75" spans="1:1">
+    <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="256" ht="18.75" spans="1:1">
+    <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="257" ht="18.75" spans="1:1">
+    <row r="257" spans="1:1">
       <c r="A257" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="258" ht="18.75" spans="1:1">
+    <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="259" ht="18.75" spans="1:1">
+    <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="260" ht="18.75" spans="1:1">
+    <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="261" ht="18.75" spans="1:1">
+    <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="262" ht="18.75" spans="1:1">
+    <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="263" ht="18.75" spans="1:1">
+    <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="264" ht="18.75" spans="1:1">
+    <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="265" ht="18.75" spans="1:1">
+    <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="266" ht="18.75" spans="1:1">
+    <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="267" ht="18.75" spans="1:1">
+    <row r="267" spans="1:1">
       <c r="A267" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="268" ht="18.75" spans="1:1">
+    <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="269" ht="18.75" spans="1:1">
+    <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="270" ht="18.75" spans="1:1">
+    <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="271" ht="18.75" spans="1:1">
+    <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="272" ht="18.75" spans="1:1">
+    <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="273" ht="18.75" spans="1:1">
+    <row r="273" spans="1:1">
       <c r="A273" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="274" ht="18.75" spans="1:1">
+    <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="275" ht="18.75" spans="1:1">
+    <row r="275" spans="1:1">
       <c r="A275" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="276" ht="18.75" spans="1:1">
+    <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="277" ht="18.75" spans="1:1">
+    <row r="277" spans="1:1">
       <c r="A277" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="278" ht="18.75" spans="1:1">
+    <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="279" ht="18.75" spans="1:1">
+    <row r="279" spans="1:1">
       <c r="A279" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="280" ht="18.75" spans="1:1">
+    <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="281" ht="18.75" spans="1:1">
+    <row r="281" spans="1:1">
       <c r="A281" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="282" ht="18.75" spans="1:1">
+    <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="283" ht="18.75" spans="1:1">
+    <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="284" ht="18.75" spans="1:1">
+    <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="285" ht="18.75" spans="1:1">
+    <row r="285" spans="1:1">
       <c r="A285" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="286" ht="18.75" spans="1:1">
+    <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="287" ht="18.75" spans="1:1">
+    <row r="287" spans="1:1">
       <c r="A287" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="288" ht="18.75" spans="1:1">
+    <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="289" ht="18.75" spans="1:1">
+    <row r="289" spans="1:1">
       <c r="A289" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="290" ht="18.75" spans="1:1">
+    <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="291" ht="18.75" spans="1:1">
+    <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="292" ht="18.75" spans="1:1">
+    <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="293" ht="18.75" spans="1:1">
+    <row r="293" spans="1:1">
       <c r="A293" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="294" ht="18.75" spans="1:1">
+    <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="295" ht="18.75" spans="1:1">
+    <row r="295" spans="1:1">
       <c r="A295" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="296" ht="18.75" spans="1:1">
+    <row r="296" spans="1:1">
       <c r="A296" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="297" ht="18.75" spans="1:1">
+    <row r="297" spans="1:1">
       <c r="A297" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="298" ht="18.75" spans="1:1">
+    <row r="298" spans="1:1">
       <c r="A298" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="299" ht="18.75" spans="1:1">
+    <row r="299" spans="1:1">
       <c r="A299" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="300" ht="18.75" spans="1:1">
+    <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="301" ht="18.75" spans="1:1">
+    <row r="301" spans="1:1">
       <c r="A301" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="302" ht="18.75" spans="1:1">
+    <row r="302" spans="1:1">
       <c r="A302" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="303" ht="18.75" spans="1:1">
+    <row r="303" spans="1:1">
       <c r="A303" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="304" ht="18.75" spans="1:1">
+    <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="305" ht="18.75" spans="1:1">
+    <row r="305" spans="1:1">
       <c r="A305" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="306" ht="18.75" spans="1:1">
+    <row r="306" spans="1:1">
       <c r="A306" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="307" ht="18.75" spans="1:1">
+    <row r="307" spans="1:1">
       <c r="A307" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="308" ht="18.75" spans="1:1">
+    <row r="308" spans="1:1">
       <c r="A308" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="309" ht="18.75" spans="1:1">
+    <row r="309" spans="1:1">
       <c r="A309" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="310" ht="18.75" spans="1:1">
+    <row r="310" spans="1:1">
       <c r="A310" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="311" ht="18.75" spans="1:1">
+    <row r="311" spans="1:1">
       <c r="A311" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="312" ht="18.75" spans="1:1">
+    <row r="312" spans="1:1">
       <c r="A312" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="313" ht="18.75" spans="1:1">
+    <row r="313" spans="1:1">
       <c r="A313" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="314" ht="18.75" spans="1:1">
+    <row r="314" spans="1:1">
       <c r="A314" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="315" ht="18.75" spans="1:1">
+    <row r="315" spans="1:1">
       <c r="A315" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="316" ht="18.75" spans="1:1">
+    <row r="316" spans="1:1">
       <c r="A316" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="317" ht="18.75" spans="1:1">
+    <row r="317" spans="1:1">
       <c r="A317" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="318" ht="18.75" spans="1:1">
+    <row r="318" spans="1:1">
       <c r="A318" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="319" ht="18.75" spans="1:1">
+    <row r="319" spans="1:1">
       <c r="A319" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="320" ht="18.75" spans="1:1">
+    <row r="320" spans="1:1">
       <c r="A320" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="321" ht="18.75" spans="1:1">
+    <row r="321" spans="1:1">
       <c r="A321" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="322" ht="18.75" spans="1:1">
+    <row r="322" spans="1:1">
       <c r="A322" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="323" ht="18.75" spans="1:1">
+    <row r="323" spans="1:1">
       <c r="A323" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="324" ht="18.75" spans="1:1">
+    <row r="324" spans="1:1">
       <c r="A324" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="325" ht="18.75" spans="1:1">
+    <row r="325" spans="1:1">
       <c r="A325" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="326" ht="18.75" spans="1:1">
+    <row r="326" spans="1:1">
       <c r="A326" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="327" ht="18.75" spans="1:1">
+    <row r="327" spans="1:1">
       <c r="A327" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="328" ht="18.75" spans="1:1">
+    <row r="328" spans="1:1">
       <c r="A328" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="329" ht="18.75" spans="1:1">
+    <row r="329" spans="1:1">
       <c r="A329" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="330" ht="18.75" spans="1:1">
+    <row r="330" spans="1:1">
       <c r="A330" s="1" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/TOFEL_QG.xlsx
+++ b/TOFEL_QG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433">
   <si>
     <t>List1</t>
   </si>
@@ -1117,6 +1117,204 @@
   </si>
   <si>
     <t>erotic</t>
+  </si>
+  <si>
+    <t>benign</t>
+  </si>
+  <si>
+    <t>malignant</t>
+  </si>
+  <si>
+    <t>tumor</t>
+  </si>
+  <si>
+    <t>malefactor</t>
+  </si>
+  <si>
+    <t>benediction</t>
+  </si>
+  <si>
+    <t>malediction</t>
+  </si>
+  <si>
+    <t>benevolent</t>
+  </si>
+  <si>
+    <t>malevolent</t>
+  </si>
+  <si>
+    <t>malice</t>
+  </si>
+  <si>
+    <t>malign</t>
+  </si>
+  <si>
+    <t>malicious</t>
+  </si>
+  <si>
+    <t>malfeasance</t>
+  </si>
+  <si>
+    <t>malcontent</t>
+  </si>
+  <si>
+    <t>melody</t>
+  </si>
+  <si>
+    <t>malady</t>
+  </si>
+  <si>
+    <t>malaise</t>
+  </si>
+  <si>
+    <t>List8</t>
+  </si>
+  <si>
+    <t>belie</t>
+  </si>
+  <si>
+    <t>belittle</t>
+  </si>
+  <si>
+    <t>beguile</t>
+  </si>
+  <si>
+    <t>guile</t>
+  </si>
+  <si>
+    <t>guileless</t>
+  </si>
+  <si>
+    <t>besiege</t>
+  </si>
+  <si>
+    <t>beleaguer</t>
+  </si>
+  <si>
+    <t>league</t>
+  </si>
+  <si>
+    <t>bestow</t>
+  </si>
+  <si>
+    <t>endow</t>
+  </si>
+  <si>
+    <t>donate</t>
+  </si>
+  <si>
+    <t>dote</t>
+  </si>
+  <si>
+    <t>condone</t>
+  </si>
+  <si>
+    <t>profane</t>
+  </si>
+  <si>
+    <t>blaspheme</t>
+  </si>
+  <si>
+    <t>blantant</t>
+  </si>
+  <si>
+    <t>bloated</t>
+  </si>
+  <si>
+    <t>blotch</t>
+  </si>
+  <si>
+    <t>boycott</t>
+  </si>
+  <si>
+    <t>flamboyant</t>
+  </si>
+  <si>
+    <t>boisterous</t>
+  </si>
+  <si>
+    <t>lobster</t>
+  </si>
+  <si>
+    <t>bolster</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>bondage</t>
+  </si>
+  <si>
+    <t>bandage</t>
+  </si>
+  <si>
+    <t>enthrall</t>
+  </si>
+  <si>
+    <t>thrall</t>
+  </si>
+  <si>
+    <t>slave</t>
+  </si>
+  <si>
+    <t>bondman</t>
+  </si>
+  <si>
+    <t>enfranchise</t>
+  </si>
+  <si>
+    <t>bravado</t>
+  </si>
+  <si>
+    <t>wig</t>
+  </si>
+  <si>
+    <t>denture</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>courageous</t>
+  </si>
+  <si>
+    <t>gallant</t>
+  </si>
+  <si>
+    <t>intripid</t>
+  </si>
+  <si>
+    <t>tripid</t>
+  </si>
+  <si>
+    <t>tremble</t>
+  </si>
+  <si>
+    <t>plucky</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>breach</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>brood</t>
+  </si>
+  <si>
+    <t>embryo</t>
+  </si>
+  <si>
+    <t>braid</t>
+  </si>
+  <si>
+    <t>broach</t>
+  </si>
+  <si>
+    <t>List9</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1322,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1165,6 +1363,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1195,7 +1400,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,27 +1428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1245,9 +1436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1269,13 +1459,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1289,6 +1472,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1317,7 +1515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,7 +1545,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,36 +1599,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1443,18 +1629,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1468,6 +1642,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,6 +1687,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1508,6 +1706,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1522,15 +1729,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,15 +1768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1590,6 +1779,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1616,145 +1814,145 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2119,10 +2317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A369"/>
+  <dimension ref="A1:A435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="A370" sqref="A370"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="C436" sqref="C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -3976,6 +4174,336 @@
     <row r="369" spans="1:1">
       <c r="A369" s="1" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="3" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
